--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hive folder\Inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hive folder\Inventory\Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C44F4B3-8EC4-48A1-8DF3-3F99F6EC65FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A3712-4C53-4640-AEA3-3D3D245E1A12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{125E9161-8151-4DE9-A0CE-C9BE9564EE69}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t xml:space="preserve">Material </t>
   </si>
@@ -39,9 +39,6 @@
     <t>Colour</t>
   </si>
   <si>
-    <t>Max at 5kg/ 5 spools</t>
-  </si>
-  <si>
     <t>PLA</t>
   </si>
   <si>
@@ -69,20 +66,98 @@
     <t>ABS</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Quantity left (kg)</t>
   </si>
   <si>
-    <t>Required for (state print and estimated quantity</t>
+    <t>Filament mass calc</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Mass tot</t>
+  </si>
+  <si>
+    <t>off white</t>
+  </si>
+  <si>
+    <t>dark blue</t>
+  </si>
+  <si>
+    <t>Advanced PLA</t>
+  </si>
+  <si>
+    <t>Empty spool PLA</t>
+  </si>
+  <si>
+    <t>HIPS</t>
+  </si>
+  <si>
+    <t>Natural white</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Reference print quantity</t>
+  </si>
+  <si>
+    <t>Circle of Willis</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural   </t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>ABS 1.75mm?</t>
+  </si>
+  <si>
+    <t>Taulman 3d alloy</t>
+  </si>
+  <si>
+    <t>Natrual transparent</t>
+  </si>
+  <si>
+    <t>Polycarbonate</t>
+  </si>
+  <si>
+    <t>Blue transparent</t>
+  </si>
+  <si>
+    <t>0.2 Kg</t>
+  </si>
+  <si>
+    <t>Empty spool PLA advanced</t>
+  </si>
+  <si>
+    <t>Required for (state print and/or estimated quantity)</t>
+  </si>
+  <si>
+    <t>Max at 3kg/ 3 spools</t>
+  </si>
+  <si>
+    <t>More colour is good</t>
+  </si>
+  <si>
+    <t>Order quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +165,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,8 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,133 +528,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1492335-35A3-4DB4-B326-88CA6B8CFAB1}">
-  <dimension ref="D3:K11"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <f>E5-$D$25</f>
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="E6">
+        <v>0.37</v>
+      </c>
+      <c r="F6" s="4">
+        <f>E6-$D$25</f>
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <f>E7-$D$25</f>
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0.37</v>
+      </c>
+      <c r="F8" s="4">
+        <f>E8-$D$25</f>
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <f>E9-$D$25</f>
+        <v>-0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <f>E10-$D$25</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F12" s="4">
+        <f>E12-$D$25</f>
+        <v>0.22300000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F14" s="4">
+        <f>E14-$D$26</f>
+        <v>0.15600000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <f>E15-$D$25</f>
+        <v>5.1999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>0.66</v>
+      </c>
+      <c r="F16" s="4">
+        <f>E16-$D$25</f>
+        <v>0.42400000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>0.41</v>
+      </c>
+      <c r="F17" s="4">
+        <f>E17-$D$25</f>
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0.77</v>
+      </c>
+      <c r="F18" s="4">
+        <f>E18-$D$25</f>
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>11</v>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="F19" s="4">
+        <f>E19-$D$25</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <f>0.717+0.741</f>
+        <v>1.458</v>
+      </c>
+      <c r="F20" s="4">
+        <f>E20-$D$25</f>
+        <v>1.222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>0.44</v>
+      </c>
+      <c r="F21" s="4">
+        <f>E21-$D$25</f>
+        <v>0.20400000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <f>E22-$D$25</f>
+        <v>0.92799999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="3"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F6 F14 F16">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="3"/>
         <color theme="0"/>
         <color theme="1"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="3"/>
         <color rgb="FFFCFCFF"/>
         <color theme="5" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="F10 F20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12 F17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFFFC000"/>
+        <cfvo type="num" val="3"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
